--- a/wit/web_region_bubble_MENA/travel_market_summary.xlsx
+++ b/wit/web_region_bubble_MENA/travel_market_summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bubble_MENA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bar_MENA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="11_4566CFE2356CD672DB3B3595395BDA16D654840E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8DA88C5-2ED8-A146-8150-041499759ECD}"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F921"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A876" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A883" sqref="A883:F921"/>
+    <sheetView tabSelected="1" topLeftCell="A901" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B915" sqref="B915:B919"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19021,6 +19021,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/wit/web_region_bubble_MENA/travel_market_summary.xlsx
+++ b/wit/web_region_bubble_MENA/travel_market_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bar_MENA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bubble_MENA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_4566CFE2356CD672DB3B3595395BDA16D654840E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8DA88C5-2ED8-A146-8150-041499759ECD}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_4566CFE2356CD672DB3B3595395BDA16D654840E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A49A64-04C9-7A42-8F09-5F16FF192A3B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12460" yWindow="11400" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualization Data" sheetId="1" r:id="rId1"/>
@@ -589,14 +589,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F921"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A901" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B915" sqref="B915:B919"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E924" sqref="E924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">

--- a/wit/web_region_bubble_MENA/travel_market_summary.xlsx
+++ b/wit/web_region_bubble_MENA/travel_market_summary.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bubble_MENA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_4566CFE2356CD672DB3B3595395BDA16D654840E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A49A64-04C9-7A42-8F09-5F16FF192A3B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_4566CFE2356CD672DB3B3595395BDA16D654840E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D460B9B8-E6A2-A24F-BBC4-CA439B933D0C}"/>
   <bookViews>
-    <workbookView xWindow="-12460" yWindow="11400" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualization Data" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Visualization Data'!$B$1:$B$921</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -587,10 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F921"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E924" sqref="E924"/>
+      <selection activeCell="D680" sqref="D680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -640,7 +644,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -660,7 +664,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -680,7 +684,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -700,7 +704,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -720,7 +724,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -740,7 +744,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -760,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -780,7 +784,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -800,7 +804,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2005</v>
       </c>
@@ -820,7 +824,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -840,7 +844,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -860,7 +864,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -880,7 +884,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2005</v>
       </c>
@@ -900,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -920,7 +924,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -940,7 +944,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -960,7 +964,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -980,7 +984,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2005</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -1040,7 +1044,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2005</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2005</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2005</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2005</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2005</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -1200,7 +1204,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2005</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2005</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2005</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2005</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2005</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2005</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2005</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2006</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2006</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2006</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2006</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2006</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2006</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2006</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2006</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2006</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2006</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2006</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2006</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2006</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2006</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2006</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2006</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2006</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2006</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2006</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2006</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2006</v>
       </c>
@@ -1840,7 +1844,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2006</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2006</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2006</v>
       </c>
@@ -1900,7 +1904,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2006</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2006</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2006</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2006</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2006</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2006</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2006</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2006</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2006</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2006</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2006</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2006</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2006</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2006</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2006</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2007</v>
       </c>
@@ -2240,7 +2244,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2007</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2007</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2007</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2007</v>
       </c>
@@ -2320,7 +2324,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2007</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2007</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2007</v>
       </c>
@@ -2380,7 +2384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2007</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2007</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2007</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2007</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2007</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2007</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2007</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2007</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2007</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2007</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2007</v>
       </c>
@@ -2600,7 +2604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2007</v>
       </c>
@@ -2620,7 +2624,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2007</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2007</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2007</v>
       </c>
@@ -2680,7 +2684,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2007</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2007</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2007</v>
       </c>
@@ -2740,7 +2744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2007</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2007</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2007</v>
       </c>
@@ -2800,7 +2804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2007</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2007</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2007</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2007</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2007</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2007</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2007</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2007</v>
       </c>
@@ -2980,7 +2984,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2007</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2007</v>
       </c>
@@ -3020,7 +3024,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2008</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2008</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2008</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2008</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2008</v>
       </c>
@@ -3120,7 +3124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2008</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2008</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2008</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2008</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2008</v>
       </c>
@@ -3220,7 +3224,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2008</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2008</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2008</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2008</v>
       </c>
@@ -3300,7 +3304,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2008</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2008</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2008</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2008</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2008</v>
       </c>
@@ -3400,7 +3404,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2008</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2008</v>
       </c>
@@ -3440,7 +3444,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2008</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2008</v>
       </c>
@@ -3480,7 +3484,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2008</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2008</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2008</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2008</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2008</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2008</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2008</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2008</v>
       </c>
@@ -3640,7 +3644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2008</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2008</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2008</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2008</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2008</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2008</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2008</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2008</v>
       </c>
@@ -3820,7 +3824,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2009</v>
       </c>
@@ -3840,7 +3844,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2010</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>32.65</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2010</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2010</v>
       </c>
@@ -3900,7 +3904,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2010</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2010</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2010</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2010</v>
       </c>
@@ -3980,7 +3984,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2010</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2010</v>
       </c>
@@ -4020,7 +4024,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2010</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2010</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2010</v>
       </c>
@@ -4080,7 +4084,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2010</v>
       </c>
@@ -4100,7 +4104,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2010</v>
       </c>
@@ -4120,7 +4124,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2010</v>
       </c>
@@ -4140,7 +4144,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2010</v>
       </c>
@@ -4160,7 +4164,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2010</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2010</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2010</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2010</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2010</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2010</v>
       </c>
@@ -4280,7 +4284,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2010</v>
       </c>
@@ -4300,7 +4304,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2010</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2010</v>
       </c>
@@ -4340,7 +4344,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2010</v>
       </c>
@@ -4360,7 +4364,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2010</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2010</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2010</v>
       </c>
@@ -4420,7 +4424,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2010</v>
       </c>
@@ -4440,7 +4444,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2010</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2010</v>
       </c>
@@ -4480,7 +4484,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2010</v>
       </c>
@@ -4500,7 +4504,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2010</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2010</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2010</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2010</v>
       </c>
@@ -4600,7 +4604,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2010</v>
       </c>
@@ -4620,7 +4624,7 @@
         <v>36.18</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2010</v>
       </c>
@@ -4640,7 +4644,7 @@
         <v>39.26</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2011</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2011</v>
       </c>
@@ -4680,7 +4684,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2011</v>
       </c>
@@ -4700,7 +4704,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2011</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>27.33</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2011</v>
       </c>
@@ -4740,7 +4744,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2011</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2011</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2011</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2011</v>
       </c>
@@ -4820,7 +4824,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2011</v>
       </c>
@@ -4840,7 +4844,7 @@
         <v>16.59</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2011</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2011</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2011</v>
       </c>
@@ -4900,7 +4904,7 @@
         <v>13.73</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2011</v>
       </c>
@@ -4920,7 +4924,7 @@
         <v>22.91</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2011</v>
       </c>
@@ -4940,7 +4944,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2011</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2011</v>
       </c>
@@ -4980,7 +4984,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2011</v>
       </c>
@@ -5000,7 +5004,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2011</v>
       </c>
@@ -5020,7 +5024,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2011</v>
       </c>
@@ -5040,7 +5044,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2011</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2011</v>
       </c>
@@ -5080,7 +5084,7 @@
         <v>34.04</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2011</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>33.380000000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2011</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2011</v>
       </c>
@@ -5140,7 +5144,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2011</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2011</v>
       </c>
@@ -5180,7 +5184,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2011</v>
       </c>
@@ -5200,7 +5204,7 @@
         <v>49.79</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2011</v>
       </c>
@@ -5220,7 +5224,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2011</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2011</v>
       </c>
@@ -5260,7 +5264,7 @@
         <v>22.41</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2011</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2011</v>
       </c>
@@ -5300,7 +5304,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2011</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2011</v>
       </c>
@@ -5340,7 +5344,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2011</v>
       </c>
@@ -5360,7 +5364,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2011</v>
       </c>
@@ -5400,7 +5404,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2011</v>
       </c>
@@ -5420,7 +5424,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2011</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2012</v>
       </c>
@@ -5460,7 +5464,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2012</v>
       </c>
@@ -5480,7 +5484,7 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2012</v>
       </c>
@@ -5500,7 +5504,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2012</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2012</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2012</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2012</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2012</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>30.93</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2012</v>
       </c>
@@ -5620,7 +5624,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2012</v>
       </c>
@@ -5640,7 +5644,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2012</v>
       </c>
@@ -5660,7 +5664,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2012</v>
       </c>
@@ -5680,7 +5684,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2012</v>
       </c>
@@ -5700,7 +5704,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2012</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2012</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2012</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2012</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>23.26</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2012</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2012</v>
       </c>
@@ -5820,7 +5824,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2012</v>
       </c>
@@ -5840,7 +5844,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2012</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2012</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>35.96</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2012</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>33.729999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2012</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>28.17</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2012</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2012</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>50.83</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2012</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>33.479999999999997</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2012</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>48.09</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2012</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2012</v>
       </c>
@@ -6040,7 +6044,7 @@
         <v>19.760000000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2012</v>
       </c>
@@ -6060,7 +6064,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2012</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2012</v>
       </c>
@@ -6100,7 +6104,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2012</v>
       </c>
@@ -6120,7 +6124,7 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2012</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2012</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2012</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2012</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>35.61</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2012</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>41.32</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2013</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>37.07</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2013</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2013</v>
       </c>
@@ -6300,7 +6304,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2013</v>
       </c>
@@ -6320,7 +6324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2013</v>
       </c>
@@ -6340,7 +6344,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2013</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2013</v>
       </c>
@@ -6380,7 +6384,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2013</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>34.36</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2013</v>
       </c>
@@ -6420,7 +6424,7 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2013</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2013</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2013</v>
       </c>
@@ -6480,7 +6484,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2013</v>
       </c>
@@ -6500,7 +6504,7 @@
         <v>20.87</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2013</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2013</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2013</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2013</v>
       </c>
@@ -6580,7 +6584,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2013</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2013</v>
       </c>
@@ -6620,7 +6624,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2013</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2013</v>
       </c>
@@ -6660,7 +6664,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2013</v>
       </c>
@@ -6680,7 +6684,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2013</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2013</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2013</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2013</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>52.43</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2013</v>
       </c>
@@ -6780,7 +6784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2013</v>
       </c>
@@ -6800,7 +6804,7 @@
         <v>49.33</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2013</v>
       </c>
@@ -6820,7 +6824,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2013</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>23.05</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2013</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2013</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2013</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2013</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2013</v>
       </c>
@@ -6940,7 +6944,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2013</v>
       </c>
@@ -6960,7 +6964,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2013</v>
       </c>
@@ -7000,7 +7004,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2013</v>
       </c>
@@ -7020,7 +7024,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2013</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>43.04</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2014</v>
       </c>
@@ -7060,7 +7064,7 @@
         <v>37.89</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2014</v>
       </c>
@@ -7080,7 +7084,7 @@
         <v>23.36</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2014</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2014</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2014</v>
       </c>
@@ -7140,7 +7144,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2014</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2014</v>
       </c>
@@ -7180,7 +7184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2014</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2014</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>31.64</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2014</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2014</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2014</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2014</v>
       </c>
@@ -7300,7 +7304,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2014</v>
       </c>
@@ -7320,7 +7324,7 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2014</v>
       </c>
@@ -7340,7 +7344,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2014</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2014</v>
       </c>
@@ -7380,7 +7384,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2014</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2014</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2014</v>
       </c>
@@ -7440,7 +7444,7 @@
         <v>24.46</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2014</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2014</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>36.92</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2014</v>
       </c>
@@ -7500,7 +7504,7 @@
         <v>37.380000000000003</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2014</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>32.31</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2014</v>
       </c>
@@ -7540,7 +7544,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2014</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>53.65</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2014</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>40.01</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2014</v>
       </c>
@@ -7600,7 +7604,7 @@
         <v>53.85</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2014</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2014</v>
       </c>
@@ -7640,7 +7644,7 @@
         <v>26.08</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2014</v>
       </c>
@@ -7660,7 +7664,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2014</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2014</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2014</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2014</v>
       </c>
@@ -7740,7 +7744,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2014</v>
       </c>
@@ -7760,7 +7764,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2014</v>
       </c>
@@ -7800,7 +7804,7 @@
         <v>27.86</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2014</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2014</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2015</v>
       </c>
@@ -7860,7 +7864,7 @@
         <v>39.33</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2015</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2015</v>
       </c>
@@ -7900,7 +7904,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2015</v>
       </c>
@@ -7920,7 +7924,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2015</v>
       </c>
@@ -7940,7 +7944,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2015</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>36.44</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2015</v>
       </c>
@@ -7980,7 +7984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2015</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>35.94</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2015</v>
       </c>
@@ -8020,7 +8024,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2015</v>
       </c>
@@ -8040,7 +8044,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2015</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2015</v>
       </c>
@@ -8080,7 +8084,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2015</v>
       </c>
@@ -8100,7 +8104,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2015</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2015</v>
       </c>
@@ -8140,7 +8144,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2015</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>38.94</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2015</v>
       </c>
@@ -8180,7 +8184,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2015</v>
       </c>
@@ -8200,7 +8204,7 @@
         <v>35.21</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2015</v>
       </c>
@@ -8220,7 +8224,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2015</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>29.03</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2015</v>
       </c>
@@ -8260,7 +8264,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2015</v>
       </c>
@@ -8280,7 +8284,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2015</v>
       </c>
@@ -8300,7 +8304,7 @@
         <v>38.54</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2015</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>34.020000000000003</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2015</v>
       </c>
@@ -8340,7 +8344,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2015</v>
       </c>
@@ -8360,7 +8364,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2015</v>
       </c>
@@ -8380,7 +8384,7 @@
         <v>41.72</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2015</v>
       </c>
@@ -8400,7 +8404,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2015</v>
       </c>
@@ -8420,7 +8424,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2015</v>
       </c>
@@ -8440,7 +8444,7 @@
         <v>30.56</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2015</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2015</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2015</v>
       </c>
@@ -8500,7 +8504,7 @@
         <v>29.36</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2015</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2015</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2015</v>
       </c>
@@ -8560,7 +8564,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2015</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2015</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2015</v>
       </c>
@@ -8640,7 +8644,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2016</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>40.61</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2016</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2016</v>
       </c>
@@ -8700,7 +8704,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2016</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>36.68</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2016</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2016</v>
       </c>
@@ -8760,7 +8764,7 @@
         <v>38.08</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2016</v>
       </c>
@@ -8780,7 +8784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2016</v>
       </c>
@@ -8800,7 +8804,7 @@
         <v>40.06</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2016</v>
       </c>
@@ -8820,7 +8824,7 @@
         <v>37.229999999999997</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2016</v>
       </c>
@@ -8840,7 +8844,7 @@
         <v>34.01</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2016</v>
       </c>
@@ -8860,7 +8864,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2016</v>
       </c>
@@ -8880,7 +8884,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2016</v>
       </c>
@@ -8900,7 +8904,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2016</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2016</v>
       </c>
@@ -8940,7 +8944,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2016</v>
       </c>
@@ -8960,7 +8964,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2016</v>
       </c>
@@ -8980,7 +8984,7 @@
         <v>35.43</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2016</v>
       </c>
@@ -9000,7 +9004,7 @@
         <v>39.67</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2016</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>34.81</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2016</v>
       </c>
@@ -9040,7 +9044,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2016</v>
       </c>
@@ -9060,7 +9064,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2016</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2016</v>
       </c>
@@ -9100,7 +9104,7 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2016</v>
       </c>
@@ -9120,7 +9124,7 @@
         <v>35.979999999999997</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2016</v>
       </c>
@@ -9140,7 +9144,7 @@
         <v>42.21</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2016</v>
       </c>
@@ -9160,7 +9164,7 @@
         <v>52.57</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2016</v>
       </c>
@@ -9180,7 +9184,7 @@
         <v>42.37</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2016</v>
       </c>
@@ -9200,7 +9204,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2016</v>
       </c>
@@ -9220,7 +9224,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2016</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>34.840000000000003</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2016</v>
       </c>
@@ -9260,7 +9264,7 @@
         <v>33.15</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2016</v>
       </c>
@@ -9280,7 +9284,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2016</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>31.22</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2016</v>
       </c>
@@ -9320,7 +9324,7 @@
         <v>11.97</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2016</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2016</v>
       </c>
@@ -9360,7 +9364,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2016</v>
       </c>
@@ -9400,7 +9404,7 @@
         <v>31.21</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2016</v>
       </c>
@@ -9420,7 +9424,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2016</v>
       </c>
@@ -9440,7 +9444,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2017</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>41.74</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2017</v>
       </c>
@@ -9480,7 +9484,7 @@
         <v>44.52</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2017</v>
       </c>
@@ -9500,7 +9504,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2017</v>
       </c>
@@ -9520,7 +9524,7 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2017</v>
       </c>
@@ -9540,7 +9544,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2017</v>
       </c>
@@ -9560,7 +9564,7 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2017</v>
       </c>
@@ -9580,7 +9584,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2017</v>
       </c>
@@ -9600,7 +9604,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2017</v>
       </c>
@@ -9620,7 +9624,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2017</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>36.71</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2017</v>
       </c>
@@ -9660,7 +9664,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2017</v>
       </c>
@@ -9680,7 +9684,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2017</v>
       </c>
@@ -9700,7 +9704,7 @@
         <v>31.18</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2017</v>
       </c>
@@ -9720,7 +9724,7 @@
         <v>45.73</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2017</v>
       </c>
@@ -9740,7 +9744,7 @@
         <v>28.04</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2017</v>
       </c>
@@ -9760,7 +9764,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2017</v>
       </c>
@@ -9780,7 +9784,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2017</v>
       </c>
@@ -9800,7 +9804,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2017</v>
       </c>
@@ -9820,7 +9824,7 @@
         <v>42.29</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2017</v>
       </c>
@@ -9840,7 +9844,7 @@
         <v>35.57</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2017</v>
       </c>
@@ -9860,7 +9864,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2017</v>
       </c>
@@ -9880,7 +9884,7 @@
         <v>43.09</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2017</v>
       </c>
@@ -9900,7 +9904,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2017</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>37.549999999999997</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2017</v>
       </c>
@@ -9940,7 +9944,7 @@
         <v>44.16</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2017</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>59.69</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2017</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>42.91</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2017</v>
       </c>
@@ -10000,7 +10004,7 @@
         <v>61.23</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2017</v>
       </c>
@@ -10020,7 +10024,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2017</v>
       </c>
@@ -10040,7 +10044,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2017</v>
       </c>
@@ -10060,7 +10064,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2017</v>
       </c>
@@ -10080,7 +10084,7 @@
         <v>33.03</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2017</v>
       </c>
@@ -10100,7 +10104,7 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2017</v>
       </c>
@@ -10120,7 +10124,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2017</v>
       </c>
@@ -10140,7 +10144,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2017</v>
       </c>
@@ -10160,7 +10164,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2017</v>
       </c>
@@ -10200,7 +10204,7 @@
         <v>33.380000000000003</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2017</v>
       </c>
@@ -10220,7 +10224,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2017</v>
       </c>
@@ -10240,7 +10244,7 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2018</v>
       </c>
@@ -10260,7 +10264,7 @@
         <v>43.54</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2018</v>
       </c>
@@ -10280,7 +10284,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2018</v>
       </c>
@@ -10300,7 +10304,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2018</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2018</v>
       </c>
@@ -10340,7 +10344,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2018</v>
       </c>
@@ -10360,7 +10364,7 @@
         <v>42.09</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2018</v>
       </c>
@@ -10380,7 +10384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2018</v>
       </c>
@@ -10400,7 +10404,7 @@
         <v>40.770000000000003</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>2018</v>
       </c>
@@ -10420,7 +10424,7 @@
         <v>42.11</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>2018</v>
       </c>
@@ -10440,7 +10444,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2018</v>
       </c>
@@ -10460,7 +10464,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>2018</v>
       </c>
@@ -10480,7 +10484,7 @@
         <v>35.32</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>2018</v>
       </c>
@@ -10500,7 +10504,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>2018</v>
       </c>
@@ -10520,7 +10524,7 @@
         <v>51.61</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>2018</v>
       </c>
@@ -10540,7 +10544,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>2018</v>
       </c>
@@ -10560,7 +10564,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>2018</v>
       </c>
@@ -10580,7 +10584,7 @@
         <v>38.68</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>2018</v>
       </c>
@@ -10600,7 +10604,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2018</v>
       </c>
@@ -10620,7 +10624,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>2018</v>
       </c>
@@ -10640,7 +10644,7 @@
         <v>37.53</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>2018</v>
       </c>
@@ -10660,7 +10664,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2018</v>
       </c>
@@ -10680,7 +10684,7 @@
         <v>44.56</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2018</v>
       </c>
@@ -10700,7 +10704,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2018</v>
       </c>
@@ -10720,7 +10724,7 @@
         <v>40.96</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2018</v>
       </c>
@@ -10740,7 +10744,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2018</v>
       </c>
@@ -10760,7 +10764,7 @@
         <v>62.21</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>2018</v>
       </c>
@@ -10780,7 +10784,7 @@
         <v>44.34</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>2018</v>
       </c>
@@ -10800,7 +10804,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>2018</v>
       </c>
@@ -10820,7 +10824,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>2018</v>
       </c>
@@ -10840,7 +10844,7 @@
         <v>40.49</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>2018</v>
       </c>
@@ -10860,7 +10864,7 @@
         <v>38.630000000000003</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>2018</v>
       </c>
@@ -10880,7 +10884,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>2018</v>
       </c>
@@ -10900,7 +10904,7 @@
         <v>36.159999999999997</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>2018</v>
       </c>
@@ -10920,7 +10924,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>2018</v>
       </c>
@@ -10940,7 +10944,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>2018</v>
       </c>
@@ -10960,7 +10964,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>2018</v>
       </c>
@@ -11000,7 +11004,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>2018</v>
       </c>
@@ -11020,7 +11024,7 @@
         <v>50.27</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>2018</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>50.88</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>2019</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>45.64</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2019</v>
       </c>
@@ -11080,7 +11084,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2019</v>
       </c>
@@ -11100,7 +11104,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>2019</v>
       </c>
@@ -11120,7 +11124,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>2019</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>2019</v>
       </c>
@@ -11160,7 +11164,7 @@
         <v>43.64</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2019</v>
       </c>
@@ -11180,7 +11184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>2019</v>
       </c>
@@ -11200,7 +11204,7 @@
         <v>44.91</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2019</v>
       </c>
@@ -11220,7 +11224,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2019</v>
       </c>
@@ -11240,7 +11244,7 @@
         <v>45.06</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>2019</v>
       </c>
@@ -11260,7 +11264,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>2019</v>
       </c>
@@ -11280,7 +11284,7 @@
         <v>36.340000000000003</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>2019</v>
       </c>
@@ -11300,7 +11304,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>2019</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>54.08</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2019</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>37.32</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>2019</v>
       </c>
@@ -11360,7 +11364,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>2019</v>
       </c>
@@ -11380,7 +11384,7 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2019</v>
       </c>
@@ -11400,7 +11404,7 @@
         <v>49.71</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>2019</v>
       </c>
@@ -11420,7 +11424,7 @@
         <v>32.619999999999997</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>2019</v>
       </c>
@@ -11440,7 +11444,7 @@
         <v>37.82</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>2019</v>
       </c>
@@ -11460,7 +11464,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2019</v>
       </c>
@@ -11480,7 +11484,7 @@
         <v>46.14</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>2019</v>
       </c>
@@ -11500,7 +11504,7 @@
         <v>49.08</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>2019</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>42.86</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>2019</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>2019</v>
       </c>
@@ -11560,7 +11564,7 @@
         <v>69.67</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>2019</v>
       </c>
@@ -11580,7 +11584,7 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>2019</v>
       </c>
@@ -11600,7 +11604,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>2019</v>
       </c>
@@ -11620,7 +11624,7 @@
         <v>31.53</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>2019</v>
       </c>
@@ -11640,7 +11644,7 @@
         <v>42.96</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>2019</v>
       </c>
@@ -11660,7 +11664,7 @@
         <v>40.590000000000003</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>2019</v>
       </c>
@@ -11680,7 +11684,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>2019</v>
       </c>
@@ -11700,7 +11704,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>2019</v>
       </c>
@@ -11720,7 +11724,7 @@
         <v>24.58</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>2019</v>
       </c>
@@ -11740,7 +11744,7 @@
         <v>32.81</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>2019</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>2019</v>
       </c>
@@ -11800,7 +11804,7 @@
         <v>38.020000000000003</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>2019</v>
       </c>
@@ -11820,7 +11824,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>2019</v>
       </c>
@@ -11840,7 +11844,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>2020</v>
       </c>
@@ -11860,7 +11864,7 @@
         <v>50.39</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>2020</v>
       </c>
@@ -11880,7 +11884,7 @@
         <v>62.32</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>2020</v>
       </c>
@@ -11900,7 +11904,7 @@
         <v>24.29</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>2020</v>
       </c>
@@ -11920,7 +11924,7 @@
         <v>47.91</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>2020</v>
       </c>
@@ -11940,7 +11944,7 @@
         <v>42.59</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>2020</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>2020</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>2020</v>
       </c>
@@ -12000,7 +12004,7 @@
         <v>42.51</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>2020</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>52.51</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>2020</v>
       </c>
@@ -12040,7 +12044,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>2020</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>2020</v>
       </c>
@@ -12080,7 +12084,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>2020</v>
       </c>
@@ -12100,7 +12104,7 @@
         <v>37.36</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>2020</v>
       </c>
@@ -12120,7 +12124,7 @@
         <v>50.27</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>2020</v>
       </c>
@@ -12140,7 +12144,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>2020</v>
       </c>
@@ -12160,7 +12164,7 @@
         <v>80.77</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>2020</v>
       </c>
@@ -12180,7 +12184,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>2020</v>
       </c>
@@ -12200,7 +12204,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>2020</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>40.21</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>2020</v>
       </c>
@@ -12240,7 +12244,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>2020</v>
       </c>
@@ -12260,7 +12264,7 @@
         <v>37.840000000000003</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>2020</v>
       </c>
@@ -12280,7 +12284,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>2020</v>
       </c>
@@ -12300,7 +12304,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>2020</v>
       </c>
@@ -12320,7 +12324,7 @@
         <v>48.48</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>2020</v>
       </c>
@@ -12340,7 +12344,7 @@
         <v>50.84</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>2020</v>
       </c>
@@ -12360,7 +12364,7 @@
         <v>71.650000000000006</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>2020</v>
       </c>
@@ -12380,7 +12384,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>2020</v>
       </c>
@@ -12400,7 +12404,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>2020</v>
       </c>
@@ -12420,7 +12424,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>2020</v>
       </c>
@@ -12440,7 +12444,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>2020</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>2020</v>
       </c>
@@ -12480,7 +12484,7 @@
         <v>41.53</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>2020</v>
       </c>
@@ -12500,7 +12504,7 @@
         <v>42.53</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>2020</v>
       </c>
@@ -12520,7 +12524,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>2020</v>
       </c>
@@ -12540,7 +12544,7 @@
         <v>37.04</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>2020</v>
       </c>
@@ -12560,7 +12564,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>2020</v>
       </c>
@@ -12600,7 +12604,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>2020</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>51.57</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>2020</v>
       </c>
@@ -12640,7 +12644,7 @@
         <v>57.84</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>2021</v>
       </c>
@@ -12660,7 +12664,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>2021</v>
       </c>
@@ -12680,7 +12684,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>2021</v>
       </c>
@@ -12700,7 +12704,7 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>2021</v>
       </c>
@@ -12720,7 +12724,7 @@
         <v>53.88</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>2021</v>
       </c>
@@ -12740,7 +12744,7 @@
         <v>45.02</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>2021</v>
       </c>
@@ -12760,7 +12764,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>2021</v>
       </c>
@@ -12780,7 +12784,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>2021</v>
       </c>
@@ -12800,7 +12804,7 @@
         <v>43.03</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>2021</v>
       </c>
@@ -12820,7 +12824,7 @@
         <v>55.92</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>2021</v>
       </c>
@@ -12840,7 +12844,7 @@
         <v>56.63</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>2021</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>2021</v>
       </c>
@@ -12880,7 +12884,7 @@
         <v>47.23</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>2021</v>
       </c>
@@ -12900,7 +12904,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>2021</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>57.91</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>2021</v>
       </c>
@@ -12940,7 +12944,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>2021</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>2021</v>
       </c>
@@ -12980,7 +12984,7 @@
         <v>45.91</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>2021</v>
       </c>
@@ -13000,7 +13004,7 @@
         <v>56.68</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>2021</v>
       </c>
@@ -13020,7 +13024,7 @@
         <v>48.08</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>2021</v>
       </c>
@@ -13040,7 +13044,7 @@
         <v>48.73</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>2021</v>
       </c>
@@ -13060,7 +13064,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>2021</v>
       </c>
@@ -13080,7 +13084,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>2021</v>
       </c>
@@ -13100,7 +13104,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>2021</v>
       </c>
@@ -13120,7 +13124,7 @@
         <v>51.11</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>2021</v>
       </c>
@@ -13140,7 +13144,7 @@
         <v>57.99</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>2021</v>
       </c>
@@ -13160,7 +13164,7 @@
         <v>68.55</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>2021</v>
       </c>
@@ -13180,7 +13184,7 @@
         <v>53.91</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>2021</v>
       </c>
@@ -13200,7 +13204,7 @@
         <v>72.41</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>2021</v>
       </c>
@@ -13220,7 +13224,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>2021</v>
       </c>
@@ -13240,7 +13244,7 @@
         <v>47.37</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>2021</v>
       </c>
@@ -13260,7 +13264,7 @@
         <v>43.18</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>2021</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>42.35</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>2021</v>
       </c>
@@ -13300,7 +13304,7 @@
         <v>46.15</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>2021</v>
       </c>
@@ -13320,7 +13324,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>2021</v>
       </c>
@@ -13340,7 +13344,7 @@
         <v>39.29</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>2021</v>
       </c>
@@ -13360,7 +13364,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>2021</v>
       </c>
@@ -13400,7 +13404,7 @@
         <v>45.59</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>2021</v>
       </c>
@@ -13420,7 +13424,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>2021</v>
       </c>
@@ -13440,7 +13444,7 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>2022</v>
       </c>
@@ -13460,7 +13464,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>2022</v>
       </c>
@@ -13480,7 +13484,7 @@
         <v>67.59</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>2022</v>
       </c>
@@ -13500,7 +13504,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>2022</v>
       </c>
@@ -13520,7 +13524,7 @@
         <v>54.09</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>2022</v>
       </c>
@@ -13540,7 +13544,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>2022</v>
       </c>
@@ -13560,7 +13564,7 @@
         <v>52.83</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>2022</v>
       </c>
@@ -13580,7 +13584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>2022</v>
       </c>
@@ -13600,7 +13604,7 @@
         <v>55.51</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>2022</v>
       </c>
@@ -13620,7 +13624,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>2022</v>
       </c>
@@ -13640,7 +13644,7 @@
         <v>53.12</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>2022</v>
       </c>
@@ -13660,7 +13664,7 @@
         <v>45.87</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>2022</v>
       </c>
@@ -13680,7 +13684,7 @@
         <v>50.81</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>2022</v>
       </c>
@@ -13700,7 +13704,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>2022</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>2022</v>
       </c>
@@ -13740,7 +13744,7 @@
         <v>49.65</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>2022</v>
       </c>
@@ -13760,7 +13764,7 @@
         <v>89.47</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>2022</v>
       </c>
@@ -13780,7 +13784,7 @@
         <v>51.23</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>2022</v>
       </c>
@@ -13800,7 +13804,7 @@
         <v>60.63</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>2022</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>2022</v>
       </c>
@@ -13840,7 +13844,7 @@
         <v>46.49</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>2022</v>
       </c>
@@ -13860,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>2022</v>
       </c>
@@ -13880,7 +13884,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>2022</v>
       </c>
@@ -13900,7 +13904,7 @@
         <v>58.86</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>2022</v>
       </c>
@@ -13920,7 +13924,7 @@
         <v>53.52</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>2022</v>
       </c>
@@ -13940,7 +13944,7 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>2022</v>
       </c>
@@ -13960,7 +13964,7 @@
         <v>76.38</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>2022</v>
       </c>
@@ -13980,7 +13984,7 @@
         <v>58.04</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>2022</v>
       </c>
@@ -14000,7 +14004,7 @@
         <v>81.47</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>2022</v>
       </c>
@@ -14020,7 +14024,7 @@
         <v>38.67</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>2022</v>
       </c>
@@ -14040,7 +14044,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>2022</v>
       </c>
@@ -14060,7 +14064,7 @@
         <v>45.22</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>2022</v>
       </c>
@@ -14080,7 +14084,7 @@
         <v>43.38</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>2022</v>
       </c>
@@ -14100,7 +14104,7 @@
         <v>47.42</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>2022</v>
       </c>
@@ -14120,7 +14124,7 @@
         <v>34.94</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>2022</v>
       </c>
@@ -14140,7 +14144,7 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2022</v>
       </c>
@@ -14160,7 +14164,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>2022</v>
       </c>
@@ -14200,7 +14204,7 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>2022</v>
       </c>
@@ -14220,7 +14224,7 @@
         <v>59.94</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>2022</v>
       </c>
@@ -14240,7 +14244,7 @@
         <v>63.05</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>2023</v>
       </c>
@@ -14260,7 +14264,7 @@
         <v>57.49</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>2023</v>
       </c>
@@ -14280,7 +14284,7 @@
         <v>70.790000000000006</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>2023</v>
       </c>
@@ -14300,7 +14304,7 @@
         <v>36.53</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>2023</v>
       </c>
@@ -14320,7 +14324,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>2023</v>
       </c>
@@ -14340,7 +14344,7 @@
         <v>58.96</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>2023</v>
       </c>
@@ -14360,7 +14364,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>2023</v>
       </c>
@@ -14380,7 +14384,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>2023</v>
       </c>
@@ -14400,7 +14404,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>2023</v>
       </c>
@@ -14420,7 +14424,7 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>2023</v>
       </c>
@@ -14440,7 +14444,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>2023</v>
       </c>
@@ -14460,7 +14464,7 @@
         <v>43.88</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>2023</v>
       </c>
@@ -14480,7 +14484,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>2023</v>
       </c>
@@ -14500,7 +14504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>2023</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>64.36</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>2023</v>
       </c>
@@ -14540,7 +14544,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>2023</v>
       </c>
@@ -14560,7 +14564,7 @@
         <v>91.41</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>2023</v>
       </c>
@@ -14580,7 +14584,7 @@
         <v>53.44</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>2023</v>
       </c>
@@ -14600,7 +14604,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>2023</v>
       </c>
@@ -14620,7 +14624,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>2023</v>
       </c>
@@ -14640,7 +14644,7 @@
         <v>51.15</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>2023</v>
       </c>
@@ -14660,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>2023</v>
       </c>
@@ -14680,7 +14684,7 @@
         <v>53.55</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>2023</v>
       </c>
@@ -14700,7 +14704,7 @@
         <v>61.16</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>2023</v>
       </c>
@@ -14720,7 +14724,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>2023</v>
       </c>
@@ -14740,7 +14744,7 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>2023</v>
       </c>
@@ -14760,7 +14764,7 @@
         <v>77.569999999999993</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>2023</v>
       </c>
@@ -14780,7 +14784,7 @@
         <v>59.06</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>2023</v>
       </c>
@@ -14800,7 +14804,7 @@
         <v>83.23</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>2023</v>
       </c>
@@ -14820,7 +14824,7 @@
         <v>40.14</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>2023</v>
       </c>
@@ -14840,7 +14844,7 @@
         <v>48.71</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>2023</v>
       </c>
@@ -14860,7 +14864,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>2023</v>
       </c>
@@ -14880,7 +14884,7 @@
         <v>43.34</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>2023</v>
       </c>
@@ -14900,7 +14904,7 @@
         <v>48.81</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>2023</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>36.64</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>2023</v>
       </c>
@@ -14940,7 +14944,7 @@
         <v>43.97</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>2023</v>
       </c>
@@ -14960,7 +14964,7 @@
         <v>41.28</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>2023</v>
       </c>
@@ -15000,7 +15004,7 @@
         <v>47.13</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>2023</v>
       </c>
@@ -15020,7 +15024,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>2023</v>
       </c>
@@ -15040,7 +15044,7 @@
         <v>62.91</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>2024</v>
       </c>
@@ -15060,7 +15064,7 @@
         <v>58.23</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>2024</v>
       </c>
@@ -15080,7 +15084,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>2024</v>
       </c>
@@ -15100,7 +15104,7 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>2024</v>
       </c>
@@ -15120,7 +15124,7 @@
         <v>56.57</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>2024</v>
       </c>
@@ -15140,7 +15144,7 @@
         <v>63.42</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>2024</v>
       </c>
@@ -15160,7 +15164,7 @@
         <v>56.07</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>2024</v>
       </c>
@@ -15180,7 +15184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>2024</v>
       </c>
@@ -15200,7 +15204,7 @@
         <v>71.94</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>2024</v>
       </c>
@@ -15220,7 +15224,7 @@
         <v>67.89</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>2024</v>
       </c>
@@ -15240,7 +15244,7 @@
         <v>58.74</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>2024</v>
       </c>
@@ -15260,7 +15264,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>2024</v>
       </c>
@@ -15280,7 +15284,7 @@
         <v>62.04</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>2024</v>
       </c>
@@ -15300,7 +15304,7 @@
         <v>49.63</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>2024</v>
       </c>
@@ -15320,7 +15324,7 @@
         <v>66.48</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>2024</v>
       </c>
@@ -15340,7 +15344,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>2024</v>
       </c>
@@ -15360,7 +15364,7 @@
         <v>91.81</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>2024</v>
       </c>
@@ -15380,7 +15384,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>2024</v>
       </c>
@@ -15400,7 +15404,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>2024</v>
       </c>
@@ -15420,7 +15424,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>2024</v>
       </c>
@@ -15440,7 +15444,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>2024</v>
       </c>
@@ -15460,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>2024</v>
       </c>
@@ -15480,7 +15484,7 @@
         <v>55.34</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>2024</v>
       </c>
@@ -15500,7 +15504,7 @@
         <v>64.03</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>2024</v>
       </c>
@@ -15520,7 +15524,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>2024</v>
       </c>
@@ -15540,7 +15544,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>2024</v>
       </c>
@@ -15560,7 +15564,7 @@
         <v>78.319999999999993</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>2024</v>
       </c>
@@ -15580,7 +15584,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>2024</v>
       </c>
@@ -15600,7 +15604,7 @@
         <v>83.98</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>2024</v>
       </c>
@@ -15620,7 +15624,7 @@
         <v>42.33</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>2024</v>
       </c>
@@ -15640,7 +15644,7 @@
         <v>50.17</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>2024</v>
       </c>
@@ -15660,7 +15664,7 @@
         <v>52.35</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>2024</v>
       </c>
@@ -15680,7 +15684,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>2024</v>
       </c>
@@ -15700,7 +15704,7 @@
         <v>50.69</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>2024</v>
       </c>
@@ -15720,7 +15724,7 @@
         <v>38.369999999999997</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>2024</v>
       </c>
@@ -15740,7 +15744,7 @@
         <v>44.67</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>2024</v>
       </c>
@@ -15760,7 +15764,7 @@
         <v>42.66</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>2024</v>
       </c>
@@ -15800,7 +15804,7 @@
         <v>49.06</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>2024</v>
       </c>
@@ -15820,7 +15824,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>2024</v>
       </c>
@@ -15840,7 +15844,7 @@
         <v>63.06</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>2025</v>
       </c>
@@ -15860,7 +15864,7 @@
         <v>58.85</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>2025</v>
       </c>
@@ -15880,7 +15884,7 @@
         <v>74.77</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>2025</v>
       </c>
@@ -15900,7 +15904,7 @@
         <v>43.58</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>2025</v>
       </c>
@@ -15920,7 +15924,7 @@
         <v>57.76</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>2025</v>
       </c>
@@ -15940,7 +15944,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>2025</v>
       </c>
@@ -15960,7 +15964,7 @@
         <v>57.65</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>2025</v>
       </c>
@@ -15980,7 +15984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>2025</v>
       </c>
@@ -16000,7 +16004,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>2025</v>
       </c>
@@ -16020,7 +16024,7 @@
         <v>69.77</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>2025</v>
       </c>
@@ -16040,7 +16044,7 @@
         <v>60.24</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>2025</v>
       </c>
@@ -16060,7 +16064,7 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2025</v>
       </c>
@@ -16080,7 +16084,7 @@
         <v>65.83</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2025</v>
       </c>
@@ -16100,7 +16104,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2025</v>
       </c>
@@ -16120,7 +16124,7 @@
         <v>68.12</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2025</v>
       </c>
@@ -16140,7 +16144,7 @@
         <v>57.48</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2025</v>
       </c>
@@ -16160,7 +16164,7 @@
         <v>92.14</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2025</v>
       </c>
@@ -16180,7 +16184,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2025</v>
       </c>
@@ -16200,7 +16204,7 @@
         <v>66.53</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2025</v>
       </c>
@@ -16220,7 +16224,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2025</v>
       </c>
@@ -16240,7 +16244,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2025</v>
       </c>
@@ -16260,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2025</v>
       </c>
@@ -16280,7 +16284,7 @@
         <v>55.07</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2025</v>
       </c>
@@ -16300,7 +16304,7 @@
         <v>66.760000000000005</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2025</v>
       </c>
@@ -16320,7 +16324,7 @@
         <v>57.54</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2025</v>
       </c>
@@ -16340,7 +16344,7 @@
         <v>69.47</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2025</v>
       </c>
@@ -16360,7 +16364,7 @@
         <v>79.47</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2025</v>
       </c>
@@ -16380,7 +16384,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2025</v>
       </c>
@@ -16400,7 +16404,7 @@
         <v>83.94</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2025</v>
       </c>
@@ -16420,7 +16424,7 @@
         <v>45.37</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2025</v>
       </c>
@@ -16440,7 +16444,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2025</v>
       </c>
@@ -16460,7 +16464,7 @@
         <v>54.73</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2025</v>
       </c>
@@ -16480,7 +16484,7 @@
         <v>50.03</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2025</v>
       </c>
@@ -16500,7 +16504,7 @@
         <v>52.39</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2025</v>
       </c>
@@ -16520,7 +16524,7 @@
         <v>40.79</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2025</v>
       </c>
@@ -16540,7 +16544,7 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2025</v>
       </c>
@@ -16560,7 +16564,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2025</v>
       </c>
@@ -16600,7 +16604,7 @@
         <v>51.57</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2025</v>
       </c>
@@ -16620,7 +16624,7 @@
         <v>61.99</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2025</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>63.12</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2026</v>
       </c>
@@ -16660,7 +16664,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2026</v>
       </c>
@@ -16680,7 +16684,7 @@
         <v>77.36</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2026</v>
       </c>
@@ -16700,7 +16704,7 @@
         <v>46.44</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2026</v>
       </c>
@@ -16720,7 +16724,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2026</v>
       </c>
@@ -16740,7 +16744,7 @@
         <v>70.75</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2026</v>
       </c>
@@ -16760,7 +16764,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2026</v>
       </c>
@@ -16780,7 +16784,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2026</v>
       </c>
@@ -16800,7 +16804,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2026</v>
       </c>
@@ -16820,7 +16824,7 @@
         <v>71.59</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2026</v>
       </c>
@@ -16840,7 +16844,7 @@
         <v>62.35</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2026</v>
       </c>
@@ -16860,7 +16864,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2026</v>
       </c>
@@ -16880,7 +16884,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2026</v>
       </c>
@@ -16900,7 +16904,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>2026</v>
       </c>
@@ -16920,7 +16924,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2026</v>
       </c>
@@ -16940,7 +16944,7 @@
         <v>59.18</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2026</v>
       </c>
@@ -16960,7 +16964,7 @@
         <v>92.61</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2026</v>
       </c>
@@ -16980,7 +16984,7 @@
         <v>58.61</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2026</v>
       </c>
@@ -17000,7 +17004,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2026</v>
       </c>
@@ -17020,7 +17024,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2026</v>
       </c>
@@ -17040,7 +17044,7 @@
         <v>56.61</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2026</v>
       </c>
@@ -17060,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2026</v>
       </c>
@@ -17080,7 +17084,7 @@
         <v>55.47</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2026</v>
       </c>
@@ -17100,7 +17104,7 @@
         <v>69.459999999999994</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2026</v>
       </c>
@@ -17120,7 +17124,7 @@
         <v>59.23</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>2026</v>
       </c>
@@ -17140,7 +17144,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2026</v>
       </c>
@@ -17160,7 +17164,7 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2026</v>
       </c>
@@ -17180,7 +17184,7 @@
         <v>63.67</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2026</v>
       </c>
@@ -17200,7 +17204,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2026</v>
       </c>
@@ -17220,7 +17224,7 @@
         <v>47.14</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2026</v>
       </c>
@@ -17240,7 +17244,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2026</v>
       </c>
@@ -17260,7 +17264,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2026</v>
       </c>
@@ -17280,7 +17284,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2026</v>
       </c>
@@ -17300,7 +17304,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>2026</v>
       </c>
@@ -17320,7 +17324,7 @@
         <v>43.49</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2026</v>
       </c>
@@ -17340,7 +17344,7 @@
         <v>47.71</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2026</v>
       </c>
@@ -17360,7 +17364,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2026</v>
       </c>
@@ -17400,7 +17404,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2026</v>
       </c>
@@ -17420,7 +17424,7 @@
         <v>62.52</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2026</v>
       </c>
@@ -17440,7 +17444,7 @@
         <v>63.74</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2027</v>
       </c>
@@ -17460,7 +17464,7 @@
         <v>59.64</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2027</v>
       </c>
@@ -17480,7 +17484,7 @@
         <v>79.27</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>2027</v>
       </c>
@@ -17500,7 +17504,7 @@
         <v>48.69</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2027</v>
       </c>
@@ -17520,7 +17524,7 @@
         <v>60.59</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2027</v>
       </c>
@@ -17540,7 +17544,7 @@
         <v>74.03</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2027</v>
       </c>
@@ -17560,7 +17564,7 @@
         <v>60.15</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2027</v>
       </c>
@@ -17580,7 +17584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2027</v>
       </c>
@@ -17600,7 +17604,7 @@
         <v>80.63</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2027</v>
       </c>
@@ -17620,7 +17624,7 @@
         <v>72.88</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>2027</v>
       </c>
@@ -17640,7 +17644,7 @@
         <v>64.06</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>2027</v>
       </c>
@@ -17660,7 +17664,7 @@
         <v>56.14</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>2027</v>
       </c>
@@ -17680,7 +17684,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>2027</v>
       </c>
@@ -17700,7 +17704,7 @@
         <v>56.42</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>2027</v>
       </c>
@@ -17720,7 +17724,7 @@
         <v>70.67</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>2027</v>
       </c>
@@ -17740,7 +17744,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>2027</v>
       </c>
@@ -17760,7 +17764,7 @@
         <v>92.87</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>2027</v>
       </c>
@@ -17780,7 +17784,7 @@
         <v>60.23</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>2027</v>
       </c>
@@ -17800,7 +17804,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>2027</v>
       </c>
@@ -17820,7 +17824,7 @@
         <v>61.13</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>2027</v>
       </c>
@@ -17840,7 +17844,7 @@
         <v>57.75</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>2027</v>
       </c>
@@ -17860,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>2027</v>
       </c>
@@ -17880,7 +17884,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>2027</v>
       </c>
@@ -17900,7 +17904,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>2027</v>
       </c>
@@ -17920,7 +17924,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>2027</v>
       </c>
@@ -17940,7 +17944,7 @@
         <v>70.41</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>2027</v>
       </c>
@@ -17960,7 +17964,7 @@
         <v>81.319999999999993</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>2027</v>
       </c>
@@ -17980,7 +17984,7 @@
         <v>65.38</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>2027</v>
       </c>
@@ -18000,7 +18004,7 @@
         <v>84.07</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>2027</v>
       </c>
@@ -18020,7 +18024,7 @@
         <v>48.32</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>2027</v>
       </c>
@@ -18040,7 +18044,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>2027</v>
       </c>
@@ -18060,7 +18064,7 @@
         <v>58.53</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>2027</v>
       </c>
@@ -18080,7 +18084,7 @@
         <v>54.44</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>2027</v>
       </c>
@@ -18100,7 +18104,7 @@
         <v>54.91</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>2027</v>
       </c>
@@ -18120,7 +18124,7 @@
         <v>45.85</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>2027</v>
       </c>
@@ -18140,7 +18144,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>2027</v>
       </c>
@@ -18160,7 +18164,7 @@
         <v>48.97</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>2027</v>
       </c>
@@ -18200,7 +18204,7 @@
         <v>54.97</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>2027</v>
       </c>
@@ -18220,7 +18224,7 @@
         <v>63.41</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>2027</v>
       </c>
@@ -18240,7 +18244,7 @@
         <v>64.09</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" s="2">
         <v>2009</v>
       </c>
@@ -18260,7 +18264,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" s="2">
         <v>2009</v>
       </c>
@@ -18280,7 +18284,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" s="2">
         <v>2009</v>
       </c>
@@ -18300,7 +18304,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" s="2">
         <v>2009</v>
       </c>
@@ -18320,7 +18324,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" s="2">
         <v>2009</v>
       </c>
@@ -18340,7 +18344,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" s="2">
         <v>2009</v>
       </c>
@@ -18360,7 +18364,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" s="2">
         <v>2009</v>
       </c>
@@ -18380,7 +18384,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" s="2">
         <v>2009</v>
       </c>
@@ -18400,7 +18404,7 @@
         <v>23.14</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" s="2">
         <v>2009</v>
       </c>
@@ -18420,7 +18424,7 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" s="2">
         <v>2009</v>
       </c>
@@ -18440,7 +18444,7 @@
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" s="2">
         <v>2009</v>
       </c>
@@ -18460,7 +18464,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" s="2">
         <v>2009</v>
       </c>
@@ -18480,7 +18484,7 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" s="2">
         <v>2009</v>
       </c>
@@ -18500,7 +18504,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" s="2">
         <v>2009</v>
       </c>
@@ -18520,7 +18524,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" s="2">
         <v>2009</v>
       </c>
@@ -18540,7 +18544,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" s="2">
         <v>2009</v>
       </c>
@@ -18560,7 +18564,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" s="2">
         <v>2009</v>
       </c>
@@ -18580,7 +18584,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" s="2">
         <v>2009</v>
       </c>
@@ -18600,7 +18604,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" s="2">
         <v>2009</v>
       </c>
@@ -18620,7 +18624,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" s="2">
         <v>2009</v>
       </c>
@@ -18640,7 +18644,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" s="2">
         <v>2009</v>
       </c>
@@ -18660,7 +18664,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" s="2">
         <v>2009</v>
       </c>
@@ -18680,7 +18684,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" s="2">
         <v>2009</v>
       </c>
@@ -18700,7 +18704,7 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" s="2">
         <v>2009</v>
       </c>
@@ -18720,7 +18724,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" s="2">
         <v>2009</v>
       </c>
@@ -18740,7 +18744,7 @@
         <v>36.21</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" s="2">
         <v>2009</v>
       </c>
@@ -18760,7 +18764,7 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" s="2">
         <v>2009</v>
       </c>
@@ -18780,7 +18784,7 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" s="2">
         <v>2009</v>
       </c>
@@ -18800,7 +18804,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" s="2">
         <v>2009</v>
       </c>
@@ -18820,7 +18824,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" s="2">
         <v>2009</v>
       </c>
@@ -18840,7 +18844,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" s="2">
         <v>2009</v>
       </c>
@@ -18860,7 +18864,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" s="2">
         <v>2009</v>
       </c>
@@ -18880,7 +18884,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" s="2">
         <v>2009</v>
       </c>
@@ -18900,7 +18904,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" s="2">
         <v>2009</v>
       </c>
@@ -18920,7 +18924,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" s="2">
         <v>2009</v>
       </c>
@@ -18940,7 +18944,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" s="2">
         <v>2009</v>
       </c>
@@ -18980,7 +18984,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" s="2">
         <v>2009</v>
       </c>
@@ -19000,7 +19004,7 @@
         <v>36.03</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" s="2">
         <v>2009</v>
       </c>
@@ -19021,6 +19025,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B921" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="U.A.E."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/wit/web_region_bubble_MENA/travel_market_summary.xlsx
+++ b/wit/web_region_bubble_MENA/travel_market_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/130fda80f0432a83/TravelMarketViz/wit/web_region_bubble_MENA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_4566CFE2356CD672DB3B3595395BDA16D654840E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D460B9B8-E6A2-A24F-BBC4-CA439B933D0C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_4566CFE2356CD672DB3B3595395BDA16D654840E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30415E5F-E6C7-B741-9F2A-E081442BE8A2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="2920" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visualization Data" sheetId="1" r:id="rId1"/>
@@ -590,11 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F921"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D680" sqref="D680"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -644,7 +643,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -664,7 +663,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -684,7 +683,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -704,7 +703,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -724,7 +723,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -744,7 +743,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -764,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -784,7 +783,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -804,7 +803,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2005</v>
       </c>
@@ -824,7 +823,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -844,7 +843,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -864,7 +863,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -884,7 +883,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2005</v>
       </c>
@@ -904,7 +903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -924,7 +923,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -944,7 +943,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2005</v>
       </c>
@@ -964,7 +963,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -984,7 +983,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2005</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2005</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2005</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2005</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2005</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2005</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2005</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2005</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2005</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2005</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2005</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2005</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2005</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2005</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2005</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2005</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2006</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2006</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2006</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2006</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2006</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2006</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2006</v>
       </c>
@@ -1564,7 +1563,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2006</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2006</v>
       </c>
@@ -1604,7 +1603,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2006</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2006</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2006</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2006</v>
       </c>
@@ -1684,7 +1683,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2006</v>
       </c>
@@ -1704,7 +1703,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2006</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2006</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2006</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2006</v>
       </c>
@@ -1784,7 +1783,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2006</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2006</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2006</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2006</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2006</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2006</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2006</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2006</v>
       </c>
@@ -1944,7 +1943,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2006</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2006</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2006</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2006</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2006</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2006</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2006</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2006</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2006</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2006</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2006</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2006</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2006</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2007</v>
       </c>
@@ -2244,7 +2243,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2007</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2007</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2007</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2007</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2007</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2007</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2007</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2007</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2007</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2007</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2007</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2007</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2007</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2007</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2007</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2007</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2007</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2007</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2007</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2007</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2007</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2007</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2007</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2007</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2007</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2007</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2007</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2007</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2007</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2007</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2007</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2007</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2007</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2007</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2007</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2007</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2007</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2007</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2008</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2008</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2008</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2008</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2008</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2008</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2008</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2008</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2008</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2008</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2008</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2008</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2008</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2008</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2008</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2008</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2008</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2008</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2008</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2008</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2008</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2008</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2008</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2008</v>
       </c>
@@ -3504,7 +3503,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2008</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2008</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2008</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2008</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2008</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2008</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2008</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2008</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2008</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2008</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2008</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2008</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2008</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2008</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2008</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2009</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2010</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>32.65</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2010</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2010</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2010</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2010</v>
       </c>
@@ -3944,7 +3943,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2010</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>25.01</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2010</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2010</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2010</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2010</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2010</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2010</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2010</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2010</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2010</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2010</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2010</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2010</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2010</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>14.35</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2010</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2010</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2010</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2010</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2010</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2010</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2010</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2010</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2010</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2010</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2010</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2010</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2010</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2010</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2010</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2010</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2010</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2010</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2010</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>36.18</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2010</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>39.26</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2011</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2011</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2011</v>
       </c>
@@ -4704,7 +4703,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2011</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>27.33</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2011</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2011</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2011</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2011</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2011</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2011</v>
       </c>
@@ -4844,7 +4843,7 @@
         <v>16.59</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2011</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2011</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2011</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>13.73</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2011</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>22.91</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2011</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>22.25</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2011</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2011</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2011</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2011</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2011</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2011</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2011</v>
       </c>
@@ -5084,7 +5083,7 @@
         <v>34.04</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2011</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>33.380000000000003</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2011</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2011</v>
       </c>
@@ -5144,7 +5143,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2011</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2011</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2011</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>49.79</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2011</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>9.11</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2011</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2011</v>
       </c>
@@ -5264,7 +5263,7 @@
         <v>22.41</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2011</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2011</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2011</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2011</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2011</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2011</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>19.829999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2011</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2011</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2012</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2012</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2012</v>
       </c>
@@ -5504,7 +5503,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2012</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2012</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2012</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>30.71</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2012</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2012</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>30.93</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2012</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2012</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2012</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>13.07</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2012</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2012</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2012</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2012</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2012</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2012</v>
       </c>
@@ -5784,7 +5783,7 @@
         <v>23.26</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2012</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2012</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2012</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2012</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2012</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>35.96</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2012</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>33.729999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2012</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>28.17</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2012</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2012</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>50.83</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2012</v>
       </c>
@@ -5984,7 +5983,7 @@
         <v>33.479999999999997</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2012</v>
       </c>
@@ -6004,7 +6003,7 @@
         <v>48.09</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2012</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2012</v>
       </c>
@@ -6044,7 +6043,7 @@
         <v>19.760000000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2012</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2012</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2012</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>21.68</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2012</v>
       </c>
@@ -6124,7 +6123,7 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2012</v>
       </c>
@@ -6144,7 +6143,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2012</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2012</v>
       </c>
@@ -6204,7 +6203,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2012</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>35.61</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2012</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>41.32</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2013</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>37.07</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2013</v>
       </c>
@@ -6284,7 +6283,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2013</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2013</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2013</v>
       </c>
@@ -6344,7 +6343,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2013</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2013</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2013</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>34.36</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2013</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2013</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2013</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2013</v>
       </c>
@@ -6484,7 +6483,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2013</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>20.87</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2013</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2013</v>
       </c>
@@ -6544,7 +6543,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2013</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2013</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2013</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2013</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2013</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2013</v>
       </c>
@@ -6664,7 +6663,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2013</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2013</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2013</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2013</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2013</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>52.43</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2013</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2013</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>49.33</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2013</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2013</v>
       </c>
@@ -6844,7 +6843,7 @@
         <v>23.05</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2013</v>
       </c>
@@ -6864,7 +6863,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2013</v>
       </c>
@@ -6884,7 +6883,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2013</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2013</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2013</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2013</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2013</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2013</v>
       </c>
@@ -7024,7 +7023,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2013</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>43.04</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2014</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>37.89</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2014</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>23.36</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2014</v>
       </c>
@@ -7104,7 +7103,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2014</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2014</v>
       </c>
@@ -7144,7 +7143,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2014</v>
       </c>
@@ -7164,7 +7163,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2014</v>
       </c>
@@ -7184,7 +7183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2014</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2014</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>31.64</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2014</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2014</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2014</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>26.65</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2014</v>
       </c>
@@ -7304,7 +7303,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2014</v>
       </c>
@@ -7324,7 +7323,7 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2014</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2014</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2014</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2014</v>
       </c>
@@ -7404,7 +7403,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2014</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2014</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>24.46</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2014</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2014</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>36.92</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2014</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>37.380000000000003</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2014</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v>32.31</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2014</v>
       </c>
@@ -7544,7 +7543,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2014</v>
       </c>
@@ -7564,7 +7563,7 @@
         <v>53.65</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2014</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>40.01</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2014</v>
       </c>
@@ -7604,7 +7603,7 @@
         <v>53.85</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2014</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>19.55</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2014</v>
       </c>
@@ -7644,7 +7643,7 @@
         <v>26.08</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2014</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2014</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2014</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>27.06</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2014</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2014</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2014</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2014</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>27.86</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2014</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2014</v>
       </c>
@@ -7844,7 +7843,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2015</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>39.33</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2015</v>
       </c>
@@ -7884,7 +7883,7 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2015</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2015</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2015</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2015</v>
       </c>
@@ -7964,7 +7963,7 @@
         <v>36.44</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2015</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2015</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>35.94</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2015</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2015</v>
       </c>
@@ -8044,7 +8043,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2015</v>
       </c>
@@ -8064,7 +8063,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2015</v>
       </c>
@@ -8084,7 +8083,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2015</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2015</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2015</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2015</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>38.94</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2015</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2015</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>35.21</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2015</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2015</v>
       </c>
@@ -8244,7 +8243,7 @@
         <v>29.03</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2015</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2015</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>39.01</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2015</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>38.54</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2015</v>
       </c>
@@ -8324,7 +8323,7 @@
         <v>34.020000000000003</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2015</v>
       </c>
@@ -8344,7 +8343,7 @@
         <v>39.25</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2015</v>
       </c>
@@ -8364,7 +8363,7 @@
         <v>56.83</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2015</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>41.72</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2015</v>
       </c>
@@ -8404,7 +8403,7 @@
         <v>56.34</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2015</v>
       </c>
@@ -8424,7 +8423,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2015</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>30.56</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2015</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2015</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2015</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>29.36</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2015</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2015</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2015</v>
       </c>
@@ -8564,7 +8563,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2015</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2015</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2015</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2016</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>40.61</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2016</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2016</v>
       </c>
@@ -8704,7 +8703,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2016</v>
       </c>
@@ -8724,7 +8723,7 @@
         <v>36.68</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2016</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2016</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>38.08</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2016</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2016</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>40.06</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2016</v>
       </c>
@@ -8824,7 +8823,7 @@
         <v>37.229999999999997</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2016</v>
       </c>
@@ -8844,7 +8843,7 @@
         <v>34.01</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2016</v>
       </c>
@@ -8864,7 +8863,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2016</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2016</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2016</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2016</v>
       </c>
@@ -8944,7 +8943,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2016</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2016</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>35.43</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2016</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>39.67</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2016</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>34.81</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2016</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2016</v>
       </c>
@@ -9064,7 +9063,7 @@
         <v>23.11</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2016</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2016</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2016</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>35.979999999999997</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2016</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>42.21</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2016</v>
       </c>
@@ -9164,7 +9163,7 @@
         <v>52.57</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2016</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>42.37</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2016</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2016</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2016</v>
       </c>
@@ -9244,7 +9243,7 @@
         <v>34.840000000000003</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2016</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>33.15</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2016</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2016</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>31.22</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2016</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>11.97</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2016</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2016</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2016</v>
       </c>
@@ -9404,7 +9403,7 @@
         <v>31.21</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2016</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2016</v>
       </c>
@@ -9444,7 +9443,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2017</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>41.74</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2017</v>
       </c>
@@ -9484,7 +9483,7 @@
         <v>44.52</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2017</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2017</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2017</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2017</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2017</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2017</v>
       </c>
@@ -9604,7 +9603,7 @@
         <v>44.78</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2017</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2017</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>36.71</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2017</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2017</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2017</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>31.18</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2017</v>
       </c>
@@ -9724,7 +9723,7 @@
         <v>45.73</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2017</v>
       </c>
@@ -9744,7 +9743,7 @@
         <v>28.04</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2017</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2017</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2017</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2017</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>42.29</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2017</v>
       </c>
@@ -9844,7 +9843,7 @@
         <v>35.57</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2017</v>
       </c>
@@ -9864,7 +9863,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2017</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>43.09</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2017</v>
       </c>
@@ -9904,7 +9903,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2017</v>
       </c>
@@ -9924,7 +9923,7 @@
         <v>37.549999999999997</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2017</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>44.16</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2017</v>
       </c>
@@ -9964,7 +9963,7 @@
         <v>59.69</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2017</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>42.91</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2017</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>61.23</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2017</v>
       </c>
@@ -10024,7 +10023,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2017</v>
       </c>
@@ -10044,7 +10043,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2017</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>35.909999999999997</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2017</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>33.03</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2017</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>33.46</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2017</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2017</v>
       </c>
@@ -10144,7 +10143,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2017</v>
       </c>
@@ -10164,7 +10163,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2017</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>33.380000000000003</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2017</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2017</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2018</v>
       </c>
@@ -10264,7 +10263,7 @@
         <v>43.54</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2018</v>
       </c>
@@ -10284,7 +10283,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2018</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2018</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2018</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2018</v>
       </c>
@@ -10364,7 +10363,7 @@
         <v>42.09</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2018</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2018</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>40.770000000000003</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>2018</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>42.11</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>2018</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2018</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>2018</v>
       </c>
@@ -10484,7 +10483,7 @@
         <v>35.32</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>2018</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>2018</v>
       </c>
@@ -10524,7 +10523,7 @@
         <v>51.61</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>2018</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>2018</v>
       </c>
@@ -10564,7 +10563,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>2018</v>
       </c>
@@ -10584,7 +10583,7 @@
         <v>38.68</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>2018</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2018</v>
       </c>
@@ -10624,7 +10623,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>2018</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>37.53</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>2018</v>
       </c>
@@ -10664,7 +10663,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2018</v>
       </c>
@@ -10684,7 +10683,7 @@
         <v>44.56</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2018</v>
       </c>
@@ -10704,7 +10703,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2018</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>40.96</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2018</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2018</v>
       </c>
@@ -10764,7 +10763,7 @@
         <v>62.21</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>2018</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>44.34</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>2018</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>2018</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>2018</v>
       </c>
@@ -10844,7 +10843,7 @@
         <v>40.49</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>2018</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>38.630000000000003</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>2018</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>2018</v>
       </c>
@@ -10904,7 +10903,7 @@
         <v>36.159999999999997</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>2018</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>2018</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>2018</v>
       </c>
@@ -10964,7 +10963,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>2018</v>
       </c>
@@ -11004,7 +11003,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>2018</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>50.27</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>2018</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>50.88</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>2019</v>
       </c>
@@ -11064,7 +11063,7 @@
         <v>45.64</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2019</v>
       </c>
@@ -11084,7 +11083,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2019</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>2019</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>2019</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>2019</v>
       </c>
@@ -11164,7 +11163,7 @@
         <v>43.64</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2019</v>
       </c>
@@ -11184,7 +11183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>2019</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>44.91</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2019</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2019</v>
       </c>
@@ -11244,7 +11243,7 @@
         <v>45.06</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>2019</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>2019</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>36.340000000000003</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>2019</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>2019</v>
       </c>
@@ -11324,7 +11323,7 @@
         <v>54.08</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2019</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>37.32</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>2019</v>
       </c>
@@ -11364,7 +11363,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>2019</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2019</v>
       </c>
@@ -11404,7 +11403,7 @@
         <v>49.71</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>2019</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>32.619999999999997</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>2019</v>
       </c>
@@ -11444,7 +11443,7 @@
         <v>37.82</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>2019</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2019</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>46.14</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>2019</v>
       </c>
@@ -11504,7 +11503,7 @@
         <v>49.08</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>2019</v>
       </c>
@@ -11524,7 +11523,7 @@
         <v>42.86</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>2019</v>
       </c>
@@ -11544,7 +11543,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>2019</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>69.67</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>2019</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>2019</v>
       </c>
@@ -11604,7 +11603,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>2019</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>31.53</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>2019</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>42.96</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>2019</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>40.590000000000003</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>2019</v>
       </c>
@@ -11684,7 +11683,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>2019</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>2019</v>
       </c>
@@ -11724,7 +11723,7 @@
         <v>24.58</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>2019</v>
       </c>
@@ -11744,7 +11743,7 @@
         <v>32.81</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>2019</v>
       </c>
@@ -11764,7 +11763,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>2019</v>
       </c>
@@ -11804,7 +11803,7 @@
         <v>38.020000000000003</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>2019</v>
       </c>
@@ -11824,7 +11823,7 @@
         <v>53.29</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>2019</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>2020</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>50.39</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>2020</v>
       </c>
@@ -11884,7 +11883,7 @@
         <v>62.32</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>2020</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>24.29</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>2020</v>
       </c>
@@ -11924,7 +11923,7 @@
         <v>47.91</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>2020</v>
       </c>
@@ -11944,7 +11943,7 @@
         <v>42.59</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>2020</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>46.2</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>2020</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>2020</v>
       </c>
@@ -12004,7 +12003,7 @@
         <v>42.51</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>2020</v>
       </c>
@@ -12024,7 +12023,7 @@
         <v>52.51</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>2020</v>
       </c>
@@ -12044,7 +12043,7 @@
         <v>53.15</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>2020</v>
       </c>
@@ -12064,7 +12063,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>2020</v>
       </c>
@@ -12084,7 +12083,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>2020</v>
       </c>
@@ -12104,7 +12103,7 @@
         <v>37.36</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>2020</v>
       </c>
@@ -12124,7 +12123,7 @@
         <v>50.27</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>2020</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>2020</v>
       </c>
@@ -12164,7 +12163,7 @@
         <v>80.77</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>2020</v>
       </c>
@@ -12184,7 +12183,7 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>2020</v>
       </c>
@@ -12204,7 +12203,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>2020</v>
       </c>
@@ -12224,7 +12223,7 @@
         <v>40.21</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>2020</v>
       </c>
@@ -12244,7 +12243,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>2020</v>
       </c>
@@ -12264,7 +12263,7 @@
         <v>37.840000000000003</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>2020</v>
       </c>
@@ -12284,7 +12283,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>2020</v>
       </c>
@@ -12304,7 +12303,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>2020</v>
       </c>
@@ -12324,7 +12323,7 @@
         <v>48.48</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>2020</v>
       </c>
@@ -12344,7 +12343,7 @@
         <v>50.84</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>2020</v>
       </c>
@@ -12364,7 +12363,7 @@
         <v>71.650000000000006</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>2020</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>2020</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>73.930000000000007</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>2020</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>2020</v>
       </c>
@@ -12444,7 +12443,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>2020</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>42.03</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>2020</v>
       </c>
@@ -12484,7 +12483,7 @@
         <v>41.53</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>2020</v>
       </c>
@@ -12504,7 +12503,7 @@
         <v>42.53</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>2020</v>
       </c>
@@ -12524,7 +12523,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>2020</v>
       </c>
@@ -12544,7 +12543,7 @@
         <v>37.04</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>2020</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>2020</v>
       </c>
@@ -12604,7 +12603,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>2020</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>51.57</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>2020</v>
       </c>
@@ -12644,7 +12643,7 @@
         <v>57.84</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>2021</v>
       </c>
@@ -12664,7 +12663,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>2021</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>64.73</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>2021</v>
       </c>
@@ -12704,7 +12703,7 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>2021</v>
       </c>
@@ -12724,7 +12723,7 @@
         <v>53.88</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>2021</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>45.02</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>2021</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>2021</v>
       </c>
@@ -12784,7 +12783,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>2021</v>
       </c>
@@ -12804,7 +12803,7 @@
         <v>43.03</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>2021</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>55.92</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>2021</v>
       </c>
@@ -12844,7 +12843,7 @@
         <v>56.63</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>2021</v>
       </c>
@@ -12864,7 +12863,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>2021</v>
       </c>
@@ -12884,7 +12883,7 @@
         <v>47.23</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>2021</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>2021</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>57.91</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>2021</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>46.72</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>2021</v>
       </c>
@@ -12964,7 +12963,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>2021</v>
       </c>
@@ -12984,7 +12983,7 @@
         <v>45.91</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>2021</v>
       </c>
@@ -13004,7 +13003,7 @@
         <v>56.68</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>2021</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>48.08</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>2021</v>
       </c>
@@ -13044,7 +13043,7 @@
         <v>48.73</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>2021</v>
       </c>
@@ -13064,7 +13063,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>2021</v>
       </c>
@@ -13084,7 +13083,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>2021</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>2021</v>
       </c>
@@ -13124,7 +13123,7 @@
         <v>51.11</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>2021</v>
       </c>
@@ -13144,7 +13143,7 @@
         <v>57.99</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>2021</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>68.55</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>2021</v>
       </c>
@@ -13184,7 +13183,7 @@
         <v>53.91</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>2021</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>72.41</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>2021</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>2021</v>
       </c>
@@ -13244,7 +13243,7 @@
         <v>47.37</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>2021</v>
       </c>
@@ -13264,7 +13263,7 @@
         <v>43.18</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>2021</v>
       </c>
@@ -13284,7 +13283,7 @@
         <v>42.35</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>2021</v>
       </c>
@@ -13304,7 +13303,7 @@
         <v>46.15</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>2021</v>
       </c>
@@ -13324,7 +13323,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>2021</v>
       </c>
@@ -13344,7 +13343,7 @@
         <v>39.29</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>2021</v>
       </c>
@@ -13364,7 +13363,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>2021</v>
       </c>
@@ -13404,7 +13403,7 @@
         <v>45.59</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>2021</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>55.18</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>2021</v>
       </c>
@@ -13444,7 +13443,7 @@
         <v>65.36</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>2022</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>2022</v>
       </c>
@@ -13484,7 +13483,7 @@
         <v>67.59</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>2022</v>
       </c>
@@ -13504,7 +13503,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>2022</v>
       </c>
@@ -13524,7 +13523,7 @@
         <v>54.09</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>2022</v>
       </c>
@@ -13544,7 +13543,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>2022</v>
       </c>
@@ -13564,7 +13563,7 @@
         <v>52.83</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>2022</v>
       </c>
@@ -13584,7 +13583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>2022</v>
       </c>
@@ -13604,7 +13603,7 @@
         <v>55.51</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>2022</v>
       </c>
@@ -13624,7 +13623,7 @@
         <v>62.51</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>2022</v>
       </c>
@@ -13644,7 +13643,7 @@
         <v>53.12</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>2022</v>
       </c>
@@ -13664,7 +13663,7 @@
         <v>45.87</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>2022</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>50.81</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>2022</v>
       </c>
@@ -13704,7 +13703,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>2022</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>2022</v>
       </c>
@@ -13744,7 +13743,7 @@
         <v>49.65</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>2022</v>
       </c>
@@ -13764,7 +13763,7 @@
         <v>89.47</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>2022</v>
       </c>
@@ -13784,7 +13783,7 @@
         <v>51.23</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>2022</v>
       </c>
@@ -13804,7 +13803,7 @@
         <v>60.63</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>2022</v>
       </c>
@@ -13824,7 +13823,7 @@
         <v>51.55</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>2022</v>
       </c>
@@ -13844,7 +13843,7 @@
         <v>46.49</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>2022</v>
       </c>
@@ -13864,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>2022</v>
       </c>
@@ -13884,7 +13883,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>2022</v>
       </c>
@@ -13904,7 +13903,7 @@
         <v>58.86</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>2022</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>53.52</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>2022</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>62.64</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>2022</v>
       </c>
@@ -13964,7 +13963,7 @@
         <v>76.38</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>2022</v>
       </c>
@@ -13984,7 +13983,7 @@
         <v>58.04</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>2022</v>
       </c>
@@ -14004,7 +14003,7 @@
         <v>81.47</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>2022</v>
       </c>
@@ -14024,7 +14023,7 @@
         <v>38.67</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>2022</v>
       </c>
@@ -14044,7 +14043,7 @@
         <v>48.63</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>2022</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>45.22</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>2022</v>
       </c>
@@ -14084,7 +14083,7 @@
         <v>43.38</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>2022</v>
       </c>
@@ -14104,7 +14103,7 @@
         <v>47.42</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>2022</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>34.94</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>2022</v>
       </c>
@@ -14144,7 +14143,7 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>2022</v>
       </c>
@@ -14164,7 +14163,7 @@
         <v>39.770000000000003</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>2022</v>
       </c>
@@ -14204,7 +14203,7 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>2022</v>
       </c>
@@ -14224,7 +14223,7 @@
         <v>59.94</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>2022</v>
       </c>
@@ -14244,7 +14243,7 @@
         <v>63.05</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>2023</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>57.49</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>2023</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>70.790000000000006</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>2023</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>36.53</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>2023</v>
       </c>
@@ -14324,7 +14323,7 @@
         <v>55.27</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>2023</v>
       </c>
@@ -14344,7 +14343,7 @@
         <v>58.96</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>2023</v>
       </c>
@@ -14364,7 +14363,7 @@
         <v>54.53</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>2023</v>
       </c>
@@ -14384,7 +14383,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>2023</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>2023</v>
       </c>
@@ -14424,7 +14423,7 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>2023</v>
       </c>
@@ -14444,7 +14443,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>2023</v>
       </c>
@@ -14464,7 +14463,7 @@
         <v>43.88</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>2023</v>
       </c>
@@ -14484,7 +14483,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>2023</v>
       </c>
@@ -14504,7 +14503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>2023</v>
       </c>
@@ -14524,7 +14523,7 @@
         <v>64.36</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>2023</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v>53.19</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>2023</v>
       </c>
@@ -14564,7 +14563,7 @@
         <v>91.41</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>2023</v>
       </c>
@@ -14584,7 +14583,7 @@
         <v>53.44</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>2023</v>
       </c>
@@ -14604,7 +14603,7 @@
         <v>62.87</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>2023</v>
       </c>
@@ -14624,7 +14623,7 @@
         <v>54.14</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>2023</v>
       </c>
@@ -14644,7 +14643,7 @@
         <v>51.15</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>2023</v>
       </c>
@@ -14664,7 +14663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>2023</v>
       </c>
@@ -14684,7 +14683,7 @@
         <v>53.55</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>2023</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>61.16</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>2023</v>
       </c>
@@ -14724,7 +14723,7 @@
         <v>54.96</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>2023</v>
       </c>
@@ -14744,7 +14743,7 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>2023</v>
       </c>
@@ -14764,7 +14763,7 @@
         <v>77.569999999999993</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>2023</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>59.06</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>2023</v>
       </c>
@@ -14804,7 +14803,7 @@
         <v>83.23</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>2023</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>40.14</v>
       </c>
     </row>
-    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>2023</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>48.71</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>2023</v>
       </c>
@@ -14864,7 +14863,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>2023</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>43.34</v>
       </c>
     </row>
-    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>2023</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>48.81</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>2023</v>
       </c>
@@ -14924,7 +14923,7 @@
         <v>36.64</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>2023</v>
       </c>
@@ -14944,7 +14943,7 @@
         <v>43.97</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>2023</v>
       </c>
@@ -14964,7 +14963,7 @@
         <v>41.28</v>
       </c>
     </row>
-    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>2023</v>
       </c>
@@ -15004,7 +15003,7 @@
         <v>47.13</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>2023</v>
       </c>
@@ -15024,7 +15023,7 @@
         <v>61.05</v>
       </c>
     </row>
-    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>2023</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>62.91</v>
       </c>
     </row>
-    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>2024</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>58.23</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>2024</v>
       </c>
@@ -15084,7 +15083,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>2024</v>
       </c>
@@ -15104,7 +15103,7 @@
         <v>40.04</v>
       </c>
     </row>
-    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>2024</v>
       </c>
@@ -15124,7 +15123,7 @@
         <v>56.57</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>2024</v>
       </c>
@@ -15144,7 +15143,7 @@
         <v>63.42</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>2024</v>
       </c>
@@ -15164,7 +15163,7 @@
         <v>56.07</v>
       </c>
     </row>
-    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>2024</v>
       </c>
@@ -15184,7 +15183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>2024</v>
       </c>
@@ -15204,7 +15203,7 @@
         <v>71.94</v>
       </c>
     </row>
-    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>2024</v>
       </c>
@@ -15224,7 +15223,7 @@
         <v>67.89</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>2024</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>58.74</v>
       </c>
     </row>
-    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>2024</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>48.05</v>
       </c>
     </row>
-    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>2024</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>62.04</v>
       </c>
     </row>
-    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>2024</v>
       </c>
@@ -15304,7 +15303,7 @@
         <v>49.63</v>
       </c>
     </row>
-    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>2024</v>
       </c>
@@ -15324,7 +15323,7 @@
         <v>66.48</v>
       </c>
     </row>
-    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>2024</v>
       </c>
@@ -15344,7 +15343,7 @@
         <v>55.3</v>
       </c>
     </row>
-    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>2024</v>
       </c>
@@ -15364,7 +15363,7 @@
         <v>91.81</v>
       </c>
     </row>
-    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>2024</v>
       </c>
@@ -15384,7 +15383,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>2024</v>
       </c>
@@ -15404,7 +15403,7 @@
         <v>64.930000000000007</v>
       </c>
     </row>
-    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>2024</v>
       </c>
@@ -15424,7 +15423,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>2024</v>
       </c>
@@ -15444,7 +15443,7 @@
         <v>54.36</v>
       </c>
     </row>
-    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>2024</v>
       </c>
@@ -15464,7 +15463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>2024</v>
       </c>
@@ -15484,7 +15483,7 @@
         <v>55.34</v>
       </c>
     </row>
-    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>2024</v>
       </c>
@@ -15504,7 +15503,7 @@
         <v>64.03</v>
       </c>
     </row>
-    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>2024</v>
       </c>
@@ -15524,7 +15523,7 @@
         <v>55.88</v>
       </c>
     </row>
-    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>2024</v>
       </c>
@@ -15544,7 +15543,7 @@
         <v>67.75</v>
       </c>
     </row>
-    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>2024</v>
       </c>
@@ -15564,7 +15563,7 @@
         <v>78.319999999999993</v>
       </c>
     </row>
-    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>2024</v>
       </c>
@@ -15584,7 +15583,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>2024</v>
       </c>
@@ -15604,7 +15603,7 @@
         <v>83.98</v>
       </c>
     </row>
-    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>2024</v>
       </c>
@@ -15624,7 +15623,7 @@
         <v>42.33</v>
       </c>
     </row>
-    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>2024</v>
       </c>
@@ -15644,7 +15643,7 @@
         <v>50.17</v>
       </c>
     </row>
-    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>2024</v>
       </c>
@@ -15664,7 +15663,7 @@
         <v>52.35</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>2024</v>
       </c>
@@ -15684,7 +15683,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>2024</v>
       </c>
@@ -15704,7 +15703,7 @@
         <v>50.69</v>
       </c>
     </row>
-    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>2024</v>
       </c>
@@ -15724,7 +15723,7 @@
         <v>38.369999999999997</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>2024</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>44.67</v>
       </c>
     </row>
-    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>2024</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>42.66</v>
       </c>
     </row>
-    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>2024</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>49.06</v>
       </c>
     </row>
-    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>2024</v>
       </c>
@@ -15824,7 +15823,7 @@
         <v>61.24</v>
       </c>
     </row>
-    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>2024</v>
       </c>
@@ -15844,7 +15843,7 @@
         <v>63.06</v>
       </c>
     </row>
-    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>2025</v>
       </c>
@@ -15864,7 +15863,7 @@
         <v>58.85</v>
       </c>
     </row>
-    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>2025</v>
       </c>
@@ -15884,7 +15883,7 @@
         <v>74.77</v>
       </c>
     </row>
-    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>2025</v>
       </c>
@@ -15904,7 +15903,7 @@
         <v>43.58</v>
       </c>
     </row>
-    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>2025</v>
       </c>
@@ -15924,7 +15923,7 @@
         <v>57.76</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>2025</v>
       </c>
@@ -15944,7 +15943,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>2025</v>
       </c>
@@ -15964,7 +15963,7 @@
         <v>57.65</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>2025</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>2025</v>
       </c>
@@ -16004,7 +16003,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>2025</v>
       </c>
@@ -16024,7 +16023,7 @@
         <v>69.77</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>2025</v>
       </c>
@@ -16044,7 +16043,7 @@
         <v>60.24</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>2025</v>
       </c>
@@ -16064,7 +16063,7 @@
         <v>50.56</v>
       </c>
     </row>
-    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>2025</v>
       </c>
@@ -16084,7 +16083,7 @@
         <v>65.83</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>2025</v>
       </c>
@@ -16104,7 +16103,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>2025</v>
       </c>
@@ -16124,7 +16123,7 @@
         <v>68.12</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>2025</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>57.48</v>
       </c>
     </row>
-    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>2025</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>92.14</v>
       </c>
     </row>
-    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>2025</v>
       </c>
@@ -16184,7 +16183,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>2025</v>
       </c>
@@ -16204,7 +16203,7 @@
         <v>66.53</v>
       </c>
     </row>
-    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>2025</v>
       </c>
@@ -16224,7 +16223,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>2025</v>
       </c>
@@ -16244,7 +16243,7 @@
         <v>55.76</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2025</v>
       </c>
@@ -16264,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>2025</v>
       </c>
@@ -16284,7 +16283,7 @@
         <v>55.07</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>2025</v>
       </c>
@@ -16304,7 +16303,7 @@
         <v>66.760000000000005</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>2025</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>57.54</v>
       </c>
     </row>
-    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2025</v>
       </c>
@@ -16344,7 +16343,7 @@
         <v>69.47</v>
       </c>
     </row>
-    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>2025</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>79.47</v>
       </c>
     </row>
-    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>2025</v>
       </c>
@@ -16384,7 +16383,7 @@
         <v>62.03</v>
       </c>
     </row>
-    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>2025</v>
       </c>
@@ -16404,7 +16403,7 @@
         <v>83.94</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>2025</v>
       </c>
@@ -16424,7 +16423,7 @@
         <v>45.37</v>
       </c>
     </row>
-    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>2025</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>51.38</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>2025</v>
       </c>
@@ -16464,7 +16463,7 @@
         <v>54.73</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>2025</v>
       </c>
@@ -16484,7 +16483,7 @@
         <v>50.03</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>2025</v>
       </c>
@@ -16504,7 +16503,7 @@
         <v>52.39</v>
       </c>
     </row>
-    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>2025</v>
       </c>
@@ -16524,7 +16523,7 @@
         <v>40.79</v>
       </c>
     </row>
-    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>2025</v>
       </c>
@@ -16544,7 +16543,7 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>2025</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>2025</v>
       </c>
@@ -16604,7 +16603,7 @@
         <v>51.57</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>2025</v>
       </c>
@@ -16624,7 +16623,7 @@
         <v>61.99</v>
       </c>
     </row>
-    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2025</v>
       </c>
@@ -16644,7 +16643,7 @@
         <v>63.12</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>2026</v>
       </c>
@@ -16664,7 +16663,7 @@
         <v>59.28</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>2026</v>
       </c>
@@ -16684,7 +16683,7 @@
         <v>77.36</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>2026</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>46.44</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>2026</v>
       </c>
@@ -16724,7 +16723,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>2026</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>70.75</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2026</v>
       </c>
@@ -16764,7 +16763,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>2026</v>
       </c>
@@ -16784,7 +16783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>2026</v>
       </c>
@@ -16804,7 +16803,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>2026</v>
       </c>
@@ -16824,7 +16823,7 @@
         <v>71.59</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>2026</v>
       </c>
@@ -16844,7 +16843,7 @@
         <v>62.35</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>2026</v>
       </c>
@@ -16864,7 +16863,7 @@
         <v>53.51</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>2026</v>
       </c>
@@ -16884,7 +16883,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>2026</v>
       </c>
@@ -16904,7 +16903,7 @@
         <v>54.67</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>2026</v>
       </c>
@@ -16924,7 +16923,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2026</v>
       </c>
@@ -16944,7 +16943,7 @@
         <v>59.18</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>2026</v>
       </c>
@@ -16964,7 +16963,7 @@
         <v>92.61</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>2026</v>
       </c>
@@ -16984,7 +16983,7 @@
         <v>58.61</v>
       </c>
     </row>
-    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>2026</v>
       </c>
@@ -17004,7 +17003,7 @@
         <v>67.91</v>
       </c>
     </row>
-    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>2026</v>
       </c>
@@ -17024,7 +17023,7 @@
         <v>59.62</v>
       </c>
     </row>
-    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>2026</v>
       </c>
@@ -17044,7 +17043,7 @@
         <v>56.61</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>2026</v>
       </c>
@@ -17064,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>2026</v>
       </c>
@@ -17084,7 +17083,7 @@
         <v>55.47</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2026</v>
       </c>
@@ -17104,7 +17103,7 @@
         <v>69.459999999999994</v>
       </c>
     </row>
-    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>2026</v>
       </c>
@@ -17124,7 +17123,7 @@
         <v>59.23</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>2026</v>
       </c>
@@ -17144,7 +17143,7 @@
         <v>69.89</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>2026</v>
       </c>
@@ -17164,7 +17163,7 @@
         <v>80.36</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>2026</v>
       </c>
@@ -17184,7 +17183,7 @@
         <v>63.67</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>2026</v>
       </c>
@@ -17204,7 +17203,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>2026</v>
       </c>
@@ -17224,7 +17223,7 @@
         <v>47.14</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2026</v>
       </c>
@@ -17244,7 +17243,7 @@
         <v>52.46</v>
       </c>
     </row>
-    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>2026</v>
       </c>
@@ -17264,7 +17263,7 @@
         <v>56.64</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>2026</v>
       </c>
@@ -17284,7 +17283,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>2026</v>
       </c>
@@ -17304,7 +17303,7 @@
         <v>53.75</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>2026</v>
       </c>
@@ -17324,7 +17323,7 @@
         <v>43.49</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>2026</v>
       </c>
@@ -17344,7 +17343,7 @@
         <v>47.71</v>
       </c>
     </row>
-    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>2026</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>2026</v>
       </c>
@@ -17404,7 +17403,7 @@
         <v>53.25</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>2026</v>
       </c>
@@ -17424,7 +17423,7 @@
         <v>62.52</v>
       </c>
     </row>
-    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>2026</v>
       </c>
@@ -17444,7 +17443,7 @@
         <v>63.74</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>2027</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>59.64</v>
       </c>
     </row>
-    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>2027</v>
       </c>
@@ -17484,7 +17483,7 @@
         <v>79.27</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>2027</v>
       </c>
@@ -17504,7 +17503,7 @@
         <v>48.69</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>2027</v>
       </c>
@@ -17524,7 +17523,7 @@
         <v>60.59</v>
       </c>
     </row>
-    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2027</v>
       </c>
@@ -17544,7 +17543,7 @@
         <v>74.03</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>2027</v>
       </c>
@@ -17564,7 +17563,7 @@
         <v>60.15</v>
       </c>
     </row>
-    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>2027</v>
       </c>
@@ -17584,7 +17583,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>2027</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>80.63</v>
       </c>
     </row>
-    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>2027</v>
       </c>
@@ -17624,7 +17623,7 @@
         <v>72.88</v>
       </c>
     </row>
-    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>2027</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>64.06</v>
       </c>
     </row>
-    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>2027</v>
       </c>
@@ -17664,7 +17663,7 @@
         <v>56.14</v>
       </c>
     </row>
-    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>2027</v>
       </c>
@@ -17684,7 +17683,7 @@
         <v>71.87</v>
       </c>
     </row>
-    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>2027</v>
       </c>
@@ -17704,7 +17703,7 @@
         <v>56.42</v>
       </c>
     </row>
-    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>2027</v>
       </c>
@@ -17724,7 +17723,7 @@
         <v>70.67</v>
       </c>
     </row>
-    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>2027</v>
       </c>
@@ -17744,7 +17743,7 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>2027</v>
       </c>
@@ -17764,7 +17763,7 @@
         <v>92.87</v>
       </c>
     </row>
-    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>2027</v>
       </c>
@@ -17784,7 +17783,7 @@
         <v>60.23</v>
       </c>
     </row>
-    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>2027</v>
       </c>
@@ -17804,7 +17803,7 @@
         <v>69.05</v>
       </c>
     </row>
-    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>2027</v>
       </c>
@@ -17824,7 +17823,7 @@
         <v>61.13</v>
       </c>
     </row>
-    <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>2027</v>
       </c>
@@ -17844,7 +17843,7 @@
         <v>57.75</v>
       </c>
     </row>
-    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>2027</v>
       </c>
@@ -17864,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>2027</v>
       </c>
@@ -17884,7 +17883,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>2027</v>
       </c>
@@ -17904,7 +17903,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>2027</v>
       </c>
@@ -17924,7 +17923,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>2027</v>
       </c>
@@ -17944,7 +17943,7 @@
         <v>70.41</v>
       </c>
     </row>
-    <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>2027</v>
       </c>
@@ -17964,7 +17963,7 @@
         <v>81.319999999999993</v>
       </c>
     </row>
-    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>2027</v>
       </c>
@@ -17984,7 +17983,7 @@
         <v>65.38</v>
       </c>
     </row>
-    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>2027</v>
       </c>
@@ -18004,7 +18003,7 @@
         <v>84.07</v>
       </c>
     </row>
-    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>2027</v>
       </c>
@@ -18024,7 +18023,7 @@
         <v>48.32</v>
       </c>
     </row>
-    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>2027</v>
       </c>
@@ -18044,7 +18043,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>2027</v>
       </c>
@@ -18064,7 +18063,7 @@
         <v>58.53</v>
       </c>
     </row>
-    <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>2027</v>
       </c>
@@ -18084,7 +18083,7 @@
         <v>54.44</v>
       </c>
     </row>
-    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>2027</v>
       </c>
@@ -18104,7 +18103,7 @@
         <v>54.91</v>
       </c>
     </row>
-    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>2027</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>45.85</v>
       </c>
     </row>
-    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>2027</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>2027</v>
       </c>
@@ -18164,7 +18163,7 @@
         <v>48.97</v>
       </c>
     </row>
-    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>2027</v>
       </c>
@@ -18204,7 +18203,7 @@
         <v>54.97</v>
       </c>
     </row>
-    <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>2027</v>
       </c>
@@ -18224,7 +18223,7 @@
         <v>63.41</v>
       </c>
     </row>
-    <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>2027</v>
       </c>
@@ -18244,7 +18243,7 @@
         <v>64.09</v>
       </c>
     </row>
-    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A883" s="2">
         <v>2009</v>
       </c>
@@ -18264,7 +18263,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A884" s="2">
         <v>2009</v>
       </c>
@@ -18284,7 +18283,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A885" s="2">
         <v>2009</v>
       </c>
@@ -18304,7 +18303,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A886" s="2">
         <v>2009</v>
       </c>
@@ -18324,7 +18323,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A887" s="2">
         <v>2009</v>
       </c>
@@ -18344,7 +18343,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A888" s="2">
         <v>2009</v>
       </c>
@@ -18364,7 +18363,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A889" s="2">
         <v>2009</v>
       </c>
@@ -18384,7 +18383,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A890" s="2">
         <v>2009</v>
       </c>
@@ -18404,7 +18403,7 @@
         <v>23.14</v>
       </c>
     </row>
-    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A891" s="2">
         <v>2009</v>
       </c>
@@ -18424,7 +18423,7 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A892" s="2">
         <v>2009</v>
       </c>
@@ -18444,7 +18443,7 @@
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="893" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A893" s="2">
         <v>2009</v>
       </c>
@@ -18464,7 +18463,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A894" s="2">
         <v>2009</v>
       </c>
@@ -18484,7 +18483,7 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A895" s="2">
         <v>2009</v>
       </c>
@@ -18504,7 +18503,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A896" s="2">
         <v>2009</v>
       </c>
@@ -18524,7 +18523,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A897" s="2">
         <v>2009</v>
       </c>
@@ -18544,7 +18543,7 @@
         <v>18.37</v>
       </c>
     </row>
-    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A898" s="2">
         <v>2009</v>
       </c>
@@ -18564,7 +18563,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="899" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A899" s="2">
         <v>2009</v>
       </c>
@@ -18584,7 +18583,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A900" s="2">
         <v>2009</v>
       </c>
@@ -18604,7 +18603,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A901" s="2">
         <v>2009</v>
       </c>
@@ -18624,7 +18623,7 @@
         <v>5.73</v>
       </c>
     </row>
-    <row r="902" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A902" s="2">
         <v>2009</v>
       </c>
@@ -18644,7 +18643,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A903" s="2">
         <v>2009</v>
       </c>
@@ -18664,7 +18663,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A904" s="2">
         <v>2009</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="905" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A905" s="2">
         <v>2009</v>
       </c>
@@ -18704,7 +18703,7 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A906" s="2">
         <v>2009</v>
       </c>
@@ -18724,7 +18723,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A907" s="2">
         <v>2009</v>
       </c>
@@ -18744,7 +18743,7 @@
         <v>36.21</v>
       </c>
     </row>
-    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A908" s="2">
         <v>2009</v>
       </c>
@@ -18764,7 +18763,7 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A909" s="2">
         <v>2009</v>
       </c>
@@ -18784,7 +18783,7 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A910" s="2">
         <v>2009</v>
       </c>
@@ -18804,7 +18803,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A911" s="2">
         <v>2009</v>
       </c>
@@ -18824,7 +18823,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A912" s="2">
         <v>2009</v>
       </c>
@@ -18844,7 +18843,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A913" s="2">
         <v>2009</v>
       </c>
@@ -18864,7 +18863,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="914" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A914" s="2">
         <v>2009</v>
       </c>
@@ -18884,7 +18883,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row r="915" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A915" s="2">
         <v>2009</v>
       </c>
@@ -18904,7 +18903,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="916" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A916" s="2">
         <v>2009</v>
       </c>
@@ -18924,7 +18923,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="917" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A917" s="2">
         <v>2009</v>
       </c>
@@ -18944,7 +18943,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="918" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A918" s="2">
         <v>2009</v>
       </c>
@@ -18984,7 +18983,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A920" s="2">
         <v>2009</v>
       </c>
@@ -19004,7 +19003,7 @@
         <v>36.03</v>
       </c>
     </row>
-    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A921" s="2">
         <v>2009</v>
       </c>
@@ -19025,13 +19024,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B921" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="U.A.E."/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B921" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
